--- a/iPOS.FrontEnd/iPOS.Core/Template/SYS/SYS_User_FileSelect.xlsx
+++ b/iPOS.FrontEnd/iPOS.Core/Template/SYS/SYS_User_FileSelect.xlsx
@@ -481,7 +481,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -586,7 +586,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -599,7 +601,9 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -612,7 +616,9 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -625,7 +631,9 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -638,7 +646,9 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -651,7 +661,9 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -664,7 +676,9 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -677,7 +691,9 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -690,7 +706,9 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -703,7 +721,9 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -716,7 +736,9 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -729,7 +751,9 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -742,7 +766,9 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -755,7 +781,9 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -768,7 +796,9 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -781,7 +811,9 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -794,7 +826,9 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -807,7 +841,9 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>

--- a/iPOS.FrontEnd/iPOS.Core/Template/SYS/SYS_User_FileSelect.xlsx
+++ b/iPOS.FrontEnd/iPOS.Core/Template/SYS/SYS_User_FileSelect.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>$CptNote$</t>
   </si>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>FullName</t>
-  </si>
-  <si>
-    <t>EmpCode</t>
-  </si>
-  <si>
-    <t>$HideColumn$</t>
   </si>
   <si>
     <t>$CptEmail$</t>
@@ -477,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -490,13 +484,12 @@
     <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="10" width="19.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="61.28515625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="9" width="19.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="61.28515625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -510,33 +503,30 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -545,47 +535,43 @@
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -598,9 +584,8 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -613,9 +598,8 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -628,9 +612,8 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -643,9 +626,8 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -658,9 +640,8 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -673,9 +654,8 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -688,9 +668,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -703,9 +682,8 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -718,9 +696,8 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -733,9 +710,8 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -748,9 +724,8 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -763,9 +738,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -778,9 +752,8 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -793,9 +766,8 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -808,9 +780,8 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -823,9 +794,8 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -838,9 +808,8 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -853,7 +822,6 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
